--- a/src/assets/layer/secure/Chiayi.xlsx
+++ b/src/assets/layer/secure/Chiayi.xlsx
@@ -69,9 +69,6 @@
     <t>大布袋大賣場前十字路口</t>
   </si>
   <si>
-    <t>大同東路, 光復新路, 三安路路口圓環</t>
-  </si>
-  <si>
     <t>大林三和里三和國小前</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>仁義路、忠明路與忠義路口</t>
   </si>
   <si>
-    <t>內埔村元興路往舊社路口, 溪州路口及紫雲村</t>
-  </si>
-  <si>
     <t>內埔國小大門前</t>
   </si>
   <si>
@@ -513,19 +507,12 @@
     <t>台18縣公路與忠義路口</t>
   </si>
   <si>
-    <t>台18縣往達邦, 奮起湖, 光華路口
-竹崎鄉中和村台18縣63.4K公里處路口</t>
-  </si>
-  <si>
     <t>台18縣與仁義潭路口</t>
   </si>
   <si>
     <t>台18縣與嘉139縣路口</t>
   </si>
   <si>
-    <t>台19縣, 媽祖大橋聯外道路路口</t>
-  </si>
-  <si>
     <t>台19縣、嘉170縣道路口</t>
   </si>
   <si>
@@ -541,12 +528,6 @@
     <t>台1縣與民雄鄉雙福村及文隆村山腳路口</t>
   </si>
   <si>
-    <t>台61縣, 166縣路口(三家村127之24號蔡鐵弘)</t>
-  </si>
-  <si>
-    <t>台61縣,166縣路口(三家村127之24號蔡鐵弘)</t>
-  </si>
-  <si>
     <t>台61縣往布袋第2聯絡道出入口</t>
   </si>
   <si>
@@ -721,9 +702,6 @@
     <t>民雄鄉西安路與保生路口</t>
   </si>
   <si>
-    <t>民雄鄉秀林村嘉市81縣,南二高閘道口</t>
-  </si>
-  <si>
     <t>民雄鄉東湖村三界公廟路口</t>
   </si>
   <si>
@@ -901,9 +879,6 @@
     <t>朴子市嘉46縣、58縣路口</t>
   </si>
   <si>
-    <t>朴子橋北端, 嘉11縣及防汛道路</t>
-  </si>
-  <si>
     <t>朴鹿公路(朴子市嘉禾里三玄宮前路口)</t>
   </si>
   <si>
@@ -1058,9 +1033,6 @@
   </si>
   <si>
     <t>梅華里嘉170縣梅華里16之18號路口</t>
-  </si>
-  <si>
-    <t>祥和三路, 舊45縣道路口</t>
   </si>
   <si>
     <t>粗溪村粗溪131號之5前路口</t>
@@ -1301,18 +1273,12 @@
     <t>嘉139縣與臺18縣興化部路口</t>
   </si>
   <si>
-    <t>嘉157,168縣路口</t>
-  </si>
-  <si>
     <t>嘉157縣與54路口</t>
   </si>
   <si>
     <t>嘉157縣與嘉46縣路口嘉與雙溪口牌樓路口</t>
   </si>
   <si>
-    <t>嘉159縣往嘉義市及灣橋114巷, 112巷與石麻園路口</t>
-  </si>
-  <si>
     <t>嘉159縣道路與嘉74縣路口(南港段)</t>
   </si>
   <si>
@@ -1340,9 +1306,6 @@
     <t>嘉166縣道路潭墘村</t>
   </si>
   <si>
-    <t>嘉167縣, 佳禾里路口</t>
-  </si>
-  <si>
     <t>嘉167縣與嘉45縣路口</t>
   </si>
   <si>
@@ -1392,12 +1355,6 @@
   </si>
   <si>
     <t>嘉49縣溪南路段</t>
-  </si>
-  <si>
-    <t>嘉54縣, 嘉55縣灣南村路口</t>
-  </si>
-  <si>
-    <t>嘉54縣, 嘉57縣路口</t>
   </si>
   <si>
     <t>嘉7縣與168縣路口10305合併(原嘉157縣與170路口-4000280、嘉157縣港墘派出所前-4000305)</t>
@@ -1495,6 +1452,52 @@
   </si>
   <si>
     <t>灣橋村5鄰186號(縣長公館)前路口</t>
+  </si>
+  <si>
+    <t>台18縣往達邦-奮起湖-光華路口
+竹崎鄉中和村台18縣63.4K公里處路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台19縣-媽祖大橋聯外道路路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台61縣-166縣路口(三家村127之24號蔡鐵弘)</t>
+  </si>
+  <si>
+    <t>台61縣-166縣路口(三家村127之24號蔡鐵弘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民雄鄉秀林村嘉市81縣-南二高閘道口</t>
+  </si>
+  <si>
+    <t>朴子橋北端- 嘉11縣及防汛道路</t>
+  </si>
+  <si>
+    <t>大同東路- 光復新路- 三安路路口圓環</t>
+  </si>
+  <si>
+    <t>內埔村元興路往舊社路口- 溪州路口及紫雲村</t>
+  </si>
+  <si>
+    <t>祥和三路- 舊45縣道路口</t>
+  </si>
+  <si>
+    <t>嘉157-168縣路口</t>
+  </si>
+  <si>
+    <t>嘉159縣往嘉義市及灣橋114巷- 112巷與石麻園路口</t>
+  </si>
+  <si>
+    <t>嘉167縣- 佳禾里路口</t>
+  </si>
+  <si>
+    <t>嘉54縣- 嘉55縣灣南村路口</t>
+  </si>
+  <si>
+    <t>嘉54縣- 嘉57縣路口</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1540,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1842,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="B16">
         <v>25.024405000000002</v>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>23.605253999999999</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>23.595381499999998</v>
@@ -2053,7 +2059,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>23.603929900000001</v>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>23.608075400000001</v>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>23.6206815</v>
@@ -2086,7 +2092,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>23.5989951</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>23.596859599999998</v>
@@ -2108,7 +2114,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>23.599601</v>
@@ -2119,7 +2125,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>23.6011913</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>23.6206815</v>
@@ -2141,7 +2147,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>23.606340700000001</v>
@@ -2152,7 +2158,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>23.604149899999999</v>
@@ -2163,7 +2169,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>23.604048599999999</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>23.6026278</v>
@@ -2185,7 +2191,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>23.603930999999999</v>
@@ -2196,7 +2202,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>23.627440700000001</v>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>23.6010548</v>
@@ -2218,7 +2224,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>23.605074200000001</v>
@@ -2229,7 +2235,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>23.602464600000001</v>
@@ -2240,7 +2246,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>23.595381499999998</v>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>23.6042524</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>23.608036299999998</v>
@@ -2273,7 +2279,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>23.5814524</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>23.595380500000001</v>
@@ -2295,7 +2301,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>23.605374699999999</v>
@@ -2306,7 +2312,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>23.349861900000001</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>23.632119299999999</v>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>23.5908263</v>
@@ -2339,7 +2345,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>23.601604300000002</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>23.601604300000002</v>
@@ -2361,7 +2367,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>23.4285818</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>23.303207799999999</v>
@@ -2383,7 +2389,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>23.303207799999999</v>
@@ -2394,7 +2400,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>23.547657000000001</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>23.4248449</v>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>23.4119618</v>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>23.453484899999999</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>23.422252</v>
@@ -2449,7 +2455,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>23.433164999999999</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>23.439360600000001</v>
@@ -2471,7 +2477,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>23.439360600000001</v>
@@ -2482,7 +2488,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>23.4450939</v>
@@ -2493,7 +2499,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>23.444232700000001</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>23.4512505</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>23.444232700000001</v>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>23.4503527</v>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>23.4511909</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>23.374838499999999</v>
@@ -2559,7 +2565,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>24.959332</v>
@@ -2570,7 +2576,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>23.429427</v>
@@ -2581,7 +2587,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>23.459878</v>
@@ -2592,7 +2598,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>23.4055702</v>
@@ -2603,7 +2609,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>23.380414999999999</v>
@@ -2614,7 +2620,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>23.456182600000002</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>23.4562575</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>23.421713700000002</v>
@@ -2647,7 +2653,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>23.453561499999999</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>23.452769</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>23.4427463</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>23.4417948</v>
@@ -2691,7 +2697,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>23.446252000000001</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>23.4422608</v>
@@ -2713,7 +2719,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>23.444607600000001</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>23.451423999999999</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>23.445661000000001</v>
@@ -2746,7 +2752,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>23.381771100000002</v>
@@ -2757,7 +2763,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>23.445132000000001</v>
@@ -2768,7 +2774,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>23.429455000000001</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>23.423899899999999</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>23.427676600000002</v>
@@ -2801,7 +2807,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>24.298694900000001</v>
@@ -2812,7 +2818,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>23.806429099999999</v>
@@ -2823,7 +2829,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>485</v>
       </c>
       <c r="B89">
         <v>23.4851964</v>
@@ -2834,7 +2840,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>23.485800999999999</v>
@@ -2845,7 +2851,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>23.512051100000001</v>
@@ -2856,7 +2862,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>23.528485799999999</v>
@@ -2867,7 +2873,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>23.543057000000001</v>
@@ -2878,7 +2884,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>23.503433000000001</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>23.500177099999998</v>
@@ -2900,7 +2906,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>23.567663199999998</v>
@@ -2911,7 +2917,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>23.504314999999998</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>23.530670199999999</v>
@@ -2933,7 +2939,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>23.535578399999999</v>
@@ -2944,7 +2950,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>23.535578099999999</v>
@@ -2955,7 +2961,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>23.4832289</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>23.484962800000002</v>
@@ -2977,7 +2983,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>23.505831300000001</v>
@@ -2988,7 +2994,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>23.506611899999999</v>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>23.500401700000001</v>
@@ -3010,7 +3016,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>23.4895605</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>23.500177099999998</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>23.500177099999998</v>
@@ -3043,7 +3049,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>23.500177099999998</v>
@@ -3054,7 +3060,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>23.498050200000002</v>
@@ -3065,7 +3071,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>23.498818199999999</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>23.4544012</v>
@@ -3087,7 +3093,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>23.496033499999999</v>
@@ -3098,7 +3104,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>23.491963500000001</v>
@@ -3109,7 +3115,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>23.4997136</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>23.454101000000001</v>
@@ -3131,7 +3137,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>23.4709708</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>23.457410100000001</v>
@@ -3153,7 +3159,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>23.475746999999998</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>23.491963500000001</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>23.468706600000001</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>23.4960913</v>
@@ -3197,7 +3203,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>23.498524100000001</v>
@@ -3208,7 +3214,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>23.456664799999999</v>
@@ -3219,7 +3225,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>23.499061399999999</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>23.475746999999998</v>
@@ -3241,7 +3247,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>23.486348499999998</v>
@@ -3252,7 +3258,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>23.495321100000002</v>
@@ -3263,7 +3269,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>23.453774899999999</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>23.458985599999998</v>
@@ -3285,7 +3291,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>23.493095400000001</v>
@@ -3296,7 +3302,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>23.5522755</v>
@@ -3307,7 +3313,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>23.4333499</v>
@@ -3318,7 +3324,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>23.456066</v>
@@ -3329,7 +3335,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>23.427806199999999</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>23.413875000000001</v>
@@ -3351,7 +3357,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>23.427898500000001</v>
@@ -3362,7 +3368,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>23.416139999999999</v>
@@ -3373,7 +3379,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>23.432950000000002</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>23.433976000000001</v>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>23.433885700000001</v>
@@ -3406,7 +3412,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>23.431418000000001</v>
@@ -3417,7 +3423,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>23.425152499999999</v>
@@ -3428,7 +3434,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>23.6318281</v>
@@ -3439,7 +3445,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>23.447620100000002</v>
@@ -3450,7 +3456,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>23.4429917</v>
@@ -3461,7 +3467,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>23.412481</v>
@@ -3472,7 +3478,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>23.446805999999999</v>
@@ -3483,7 +3489,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>23.430910999999998</v>
@@ -3494,7 +3500,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>23.457280699999998</v>
@@ -3505,7 +3511,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>23.417639000000001</v>
@@ -3516,7 +3522,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>23.413782999999999</v>
@@ -3527,7 +3533,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>23.443710899999999</v>
@@ -3538,7 +3544,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>23.449436500000001</v>
@@ -3549,7 +3555,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>23.435767800000001</v>
@@ -3560,7 +3566,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>23.445710500000001</v>
@@ -3571,7 +3577,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>23.499061399999999</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>22.771029899999998</v>
@@ -3593,7 +3599,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>23.716246099999999</v>
@@ -3604,7 +3610,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>37.078865999999998</v>
@@ -3615,7 +3621,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>23.484637899999999</v>
@@ -3626,7 +3632,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>24.161138099999999</v>
@@ -3637,7 +3643,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>23.451596800000001</v>
@@ -3646,9 +3652,9 @@
         <v>120.4699562</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>165</v>
+    <row r="164" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="B164">
         <v>23.464048900000002</v>
@@ -3659,7 +3665,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>23.444232700000001</v>
@@ -3670,7 +3676,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>23.421717699999999</v>
@@ -3681,7 +3687,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="B167">
         <v>23.565983800000001</v>
@@ -3692,7 +3698,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B168">
         <v>23.089868800000001</v>
@@ -3703,7 +3709,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B169">
         <v>23.460464399999999</v>
@@ -3714,7 +3720,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B170">
         <v>23.560435900000002</v>
@@ -3725,7 +3731,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B171">
         <v>23.460464399999999</v>
@@ -3736,7 +3742,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B172">
         <v>23.531756300000001</v>
@@ -3747,7 +3753,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>481</v>
       </c>
       <c r="B173">
         <v>23.468385699999999</v>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="B174">
         <v>23.468385699999999</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B175">
         <v>24.221796399999999</v>
@@ -3780,7 +3786,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B176">
         <v>23.3277319</v>
@@ -3791,7 +3797,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B177">
         <v>23.280998400000001</v>
@@ -3802,7 +3808,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B178">
         <v>23.4576794</v>
@@ -3813,7 +3819,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B179">
         <v>23.463068499999999</v>
@@ -3824,7 +3830,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B180">
         <v>25.004387699999999</v>
@@ -3835,7 +3841,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B181">
         <v>23.3245407</v>
@@ -3846,7 +3852,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B182">
         <v>23.521765500000001</v>
@@ -3857,7 +3863,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B183">
         <v>23.518663199999999</v>
@@ -3868,7 +3874,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B184">
         <v>23.508901999999999</v>
@@ -3879,7 +3885,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B185">
         <v>23.2093977</v>
@@ -3890,7 +3896,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B186">
         <v>23.379576</v>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B187">
         <v>23.359050100000001</v>
@@ -3912,7 +3918,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B188">
         <v>23.374736200000001</v>
@@ -3923,7 +3929,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B189">
         <v>23.374850899999998</v>
@@ -3934,7 +3940,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B190">
         <v>23.385576100000002</v>
@@ -3945,7 +3951,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B191">
         <v>23.386354799999999</v>
@@ -3956,7 +3962,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B192">
         <v>23.410323000000002</v>
@@ -3967,7 +3973,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B193">
         <v>23.387914599999998</v>
@@ -3978,7 +3984,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B194">
         <v>23.418294899999999</v>
@@ -3989,7 +3995,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B195">
         <v>23.386634999999998</v>
@@ -4000,7 +4006,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B196">
         <v>23.3807951</v>
@@ -4011,7 +4017,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B197">
         <v>23.3252351</v>
@@ -4022,7 +4028,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B198">
         <v>23.3944972</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B199">
         <v>23.419878799999999</v>
@@ -4044,7 +4050,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B200">
         <v>23.435234000000001</v>
@@ -4055,7 +4061,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B201">
         <v>23.4510437</v>
@@ -4066,7 +4072,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B202">
         <v>23.342739099999999</v>
@@ -4077,7 +4083,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B203">
         <v>23.420189400000002</v>
@@ -4088,7 +4094,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B204">
         <v>23.383508200000001</v>
@@ -4099,7 +4105,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B205">
         <v>23.383508200000001</v>
@@ -4110,7 +4116,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B206">
         <v>23.415990499999999</v>
@@ -4121,7 +4127,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B207">
         <v>23.3780675</v>
@@ -4132,7 +4138,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B208">
         <v>23.380945400000002</v>
@@ -4143,7 +4149,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B209">
         <v>23.528119100000001</v>
@@ -4154,7 +4160,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B210">
         <v>23.556093400000002</v>
@@ -4165,7 +4171,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B211">
         <v>23.565335399999999</v>
@@ -4176,7 +4182,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B212">
         <v>23.557211800000001</v>
@@ -4187,7 +4193,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B213">
         <v>23.5151489</v>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B214">
         <v>23.531756300000001</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B215">
         <v>23.519210600000001</v>
@@ -4220,7 +4226,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B216">
         <v>23.5176096</v>
@@ -4231,7 +4237,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B217">
         <v>23.539278599999999</v>
@@ -4242,7 +4248,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B218">
         <v>23.556479700000001</v>
@@ -4253,7 +4259,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B219">
         <v>23.556174800000001</v>
@@ -4264,7 +4270,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B220">
         <v>23.5461834</v>
@@ -4275,7 +4281,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B221">
         <v>23.546186899999999</v>
@@ -4286,7 +4292,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B222">
         <v>23.5491724</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B223">
         <v>23.528127000000001</v>
@@ -4308,7 +4314,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B224">
         <v>23.576550600000001</v>
@@ -4319,7 +4325,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B225">
         <v>23.520709</v>
@@ -4330,7 +4336,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B226">
         <v>23.541771399999998</v>
@@ -4341,7 +4347,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B227">
         <v>24.158118200000001</v>
@@ -4352,7 +4358,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B228">
         <v>23.571458</v>
@@ -4363,7 +4369,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B229">
         <v>23.5560337</v>
@@ -4374,7 +4380,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B230">
         <v>23.555169200000002</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B231">
         <v>23.559133899999999</v>
@@ -4396,7 +4402,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B232">
         <v>23.557299</v>
@@ -4407,7 +4413,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>482</v>
       </c>
       <c r="B233">
         <v>23.512866200000001</v>
@@ -4418,7 +4424,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B234">
         <v>23.548417000000001</v>
@@ -4429,7 +4435,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B235">
         <v>23.551105799999998</v>
@@ -4440,7 +4446,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B236">
         <v>23.555228400000001</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B237">
         <v>23.550619000000001</v>
@@ -4462,7 +4468,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B238">
         <v>23.4796409</v>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B239">
         <v>23.563801999999999</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B240">
         <v>23.558607200000001</v>
@@ -4495,7 +4501,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B241">
         <v>23.541619799999999</v>
@@ -4506,7 +4512,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B242">
         <v>23.538081699999999</v>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B243">
         <v>23.551189399999998</v>
@@ -4528,7 +4534,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B244">
         <v>23.529222000000001</v>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B245">
         <v>23.524735799999998</v>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B246">
         <v>23.5223947</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B247">
         <v>23.518667700000002</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B248">
         <v>23.5200602</v>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B249">
         <v>23.570883299999998</v>
@@ -4594,7 +4600,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B250">
         <v>23.5614542</v>
@@ -4605,7 +4611,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B251">
         <v>23.563376099999999</v>
@@ -4616,7 +4622,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B252">
         <v>23.558681400000001</v>
@@ -4627,7 +4633,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B253">
         <v>23.536916099999999</v>
@@ -4638,7 +4644,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B254">
         <v>23.466299500000002</v>
@@ -4649,7 +4655,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B255">
         <v>22.991471399999998</v>
@@ -4660,7 +4666,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B256">
         <v>23.400428999999999</v>
@@ -4671,7 +4677,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B257">
         <v>22.620409299999999</v>
@@ -4682,7 +4688,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B258">
         <v>23.459663599999999</v>
@@ -4693,7 +4699,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B259">
         <v>23.461381500000002</v>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B260">
         <v>23.461463599999998</v>
@@ -4715,7 +4721,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B261">
         <v>23.467174199999999</v>
@@ -4726,7 +4732,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B262">
         <v>23.463662800000002</v>
@@ -4737,7 +4743,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B263">
         <v>23.469484000000001</v>
@@ -4748,7 +4754,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B264">
         <v>23.463977799999999</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B265">
         <v>23.458549900000001</v>
@@ -4770,7 +4776,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B266">
         <v>23.461461799999999</v>
@@ -4781,7 +4787,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B267">
         <v>23.470523100000001</v>
@@ -4792,7 +4798,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B268">
         <v>23.4658783</v>
@@ -4803,7 +4809,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B269">
         <v>23.465543199999999</v>
@@ -4814,7 +4820,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B270">
         <v>23.458401899999998</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B271">
         <v>23.4585729</v>
@@ -4836,7 +4842,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B272">
         <v>23.462471000000001</v>
@@ -4847,7 +4853,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B273">
         <v>23.468124899999999</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B274">
         <v>23.459182200000001</v>
@@ -4869,7 +4875,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B275">
         <v>23.465032900000001</v>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B276">
         <v>23.466329300000002</v>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B277">
         <v>23.4349834</v>
@@ -4902,7 +4908,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B278">
         <v>23.416840799999999</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B279">
         <v>23.450283800000001</v>
@@ -4924,7 +4930,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B280">
         <v>23.4639126</v>
@@ -4935,7 +4941,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B281">
         <v>23.463854000000001</v>
@@ -4946,7 +4952,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B282">
         <v>23.463854000000001</v>
@@ -4957,7 +4963,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B283">
         <v>23.456812500000002</v>
@@ -4968,7 +4974,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B284">
         <v>23.4685311</v>
@@ -4979,7 +4985,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B285">
         <v>23.4650873</v>
@@ -4990,7 +4996,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B286">
         <v>23.423043700000001</v>
@@ -5001,7 +5007,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B287">
         <v>23.431156300000001</v>
@@ -5012,7 +5018,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B288">
         <v>23.459584799999998</v>
@@ -5023,7 +5029,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B289">
         <v>23.460464399999999</v>
@@ -5034,7 +5040,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B290">
         <v>23.465117599999999</v>
@@ -5045,7 +5051,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B291">
         <v>23.460464399999999</v>
@@ -5056,7 +5062,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B292">
         <v>23.4638107</v>
@@ -5067,7 +5073,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>483</v>
       </c>
       <c r="B293">
         <v>23.479909200000002</v>
@@ -5078,7 +5084,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B294">
         <v>23.451839499999998</v>
@@ -5089,7 +5095,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B295">
         <v>23.520359899999999</v>
@@ -5100,7 +5106,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B296">
         <v>23.4635666</v>
@@ -5111,7 +5117,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B297">
         <v>23.504702999999999</v>
@@ -5122,7 +5128,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B298">
         <v>23.485800999999999</v>
@@ -5133,7 +5139,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B299">
         <v>23.5038634</v>
@@ -5144,7 +5150,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B300">
         <v>23.495105899999999</v>
@@ -5155,7 +5161,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B301">
         <v>23.529001000000001</v>
@@ -5166,7 +5172,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B302">
         <v>23.522429200000001</v>
@@ -5177,7 +5183,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B303">
         <v>23.501648800000002</v>
@@ -5188,7 +5194,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B304">
         <v>23.539966</v>
@@ -5199,7 +5205,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B305">
         <v>23.498253200000001</v>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B306">
         <v>23.497502300000001</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B307">
         <v>23.521657000000001</v>
@@ -5232,7 +5238,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B308">
         <v>23.507576400000001</v>
@@ -5243,7 +5249,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B309">
         <v>23.484570699999999</v>
@@ -5254,7 +5260,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B310">
         <v>23.529163400000002</v>
@@ -5265,7 +5271,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B311">
         <v>23.4170999</v>
@@ -5276,7 +5282,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B312">
         <v>23.425061100000001</v>
@@ -5287,7 +5293,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B313">
         <v>23.483346000000001</v>
@@ -5298,7 +5304,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B314">
         <v>23.543041200000001</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B315">
         <v>23.451540999999999</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B316">
         <v>23.499543200000002</v>
@@ -5331,7 +5337,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B317">
         <v>23.454773899999999</v>
@@ -5342,7 +5348,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B318">
         <v>23.421484</v>
@@ -5353,7 +5359,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B319">
         <v>23.446321000000001</v>
@@ -5364,7 +5370,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B320">
         <v>23.460151</v>
@@ -5375,7 +5381,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B321">
         <v>23.4575757</v>
@@ -5386,7 +5392,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B322">
         <v>23.458394899999998</v>
@@ -5397,7 +5403,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B323">
         <v>23.436542200000002</v>
@@ -5408,7 +5414,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B324">
         <v>23.375434200000001</v>
@@ -5419,7 +5425,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B325">
         <v>23.501059300000001</v>
@@ -5430,7 +5436,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B326">
         <v>23.446019</v>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B327">
         <v>23.4811409</v>
@@ -5452,7 +5458,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B328">
         <v>23.449316700000001</v>
@@ -5463,7 +5469,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B329">
         <v>23.526957100000001</v>
@@ -5474,7 +5480,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B330">
         <v>23.298848</v>
@@ -5485,7 +5491,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B331">
         <v>23.5717295</v>
@@ -5496,7 +5502,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B332">
         <v>23.438218899999999</v>
@@ -5507,7 +5513,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B333">
         <v>23.3821154</v>
@@ -5518,7 +5524,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B334">
         <v>23.585394000000001</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B335">
         <v>23.540561</v>
@@ -5540,7 +5546,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B336">
         <v>23.5802166</v>
@@ -5551,7 +5557,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B337">
         <v>23.5715456</v>
@@ -5562,7 +5568,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B338">
         <v>23.5849008</v>
@@ -5573,7 +5579,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B339">
         <v>23.5849166</v>
@@ -5584,7 +5590,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B340">
         <v>23.587381499999999</v>
@@ -5595,7 +5601,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B341">
         <v>23.560076800000001</v>
@@ -5606,7 +5612,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B342">
         <v>23.575933299999999</v>
@@ -5617,7 +5623,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B343">
         <v>23.555024299999999</v>
@@ -5628,7 +5634,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B344">
         <v>23.587381199999999</v>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B345">
         <v>23.411041000000001</v>
@@ -5650,7 +5656,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>486</v>
       </c>
       <c r="B346">
         <v>23.4547314</v>
@@ -5661,7 +5667,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B347">
         <v>23.448550000000001</v>
@@ -5672,7 +5678,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B348">
         <v>23.423898900000001</v>
@@ -5683,7 +5689,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B349">
         <v>23.448346799999999</v>
@@ -5694,7 +5700,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B350">
         <v>23.454781499999999</v>
@@ -5705,7 +5711,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B351">
         <v>23.378581100000002</v>
@@ -5716,7 +5722,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B352">
         <v>23.3974267</v>
@@ -5727,7 +5733,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B353">
         <v>23.4193146</v>
@@ -5738,7 +5744,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B354">
         <v>23.404760100000001</v>
@@ -5749,7 +5755,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B355">
         <v>23.386407500000001</v>
@@ -5760,7 +5766,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B356">
         <v>23.395244300000002</v>
@@ -5771,7 +5777,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B357">
         <v>23.385148900000001</v>
@@ -5782,7 +5788,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B358">
         <v>23.503647999999998</v>
@@ -5793,7 +5799,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B359">
         <v>23.5042844</v>
@@ -5804,7 +5810,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B360">
         <v>23.484635699999998</v>
@@ -5815,7 +5821,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B361">
         <v>23.428648500000001</v>
@@ -5826,7 +5832,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B362">
         <v>23.464189099999999</v>
@@ -5837,7 +5843,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B363">
         <v>23.457230299999999</v>
@@ -5848,7 +5854,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B364">
         <v>23.464447199999999</v>
@@ -5859,7 +5865,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B365">
         <v>23.429619500000001</v>
@@ -5870,7 +5876,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B366">
         <v>23.464188100000001</v>
@@ -5881,7 +5887,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B367">
         <v>23.439712</v>
@@ -5892,7 +5898,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B368">
         <v>25.028409799999999</v>
@@ -5903,7 +5909,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B369">
         <v>22.4762223</v>
@@ -5914,7 +5920,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B370">
         <v>23.559760199999999</v>
@@ -5925,7 +5931,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B371">
         <v>23.555319799999999</v>
@@ -5936,7 +5942,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B372">
         <v>23.555648900000001</v>
@@ -5947,7 +5953,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B373">
         <v>23.542550899999998</v>
@@ -5958,7 +5964,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B374">
         <v>23.555768100000002</v>
@@ -5969,7 +5975,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B375">
         <v>23.5596952</v>
@@ -5980,7 +5986,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B376">
         <v>23.5693378</v>
@@ -5991,7 +5997,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B377">
         <v>23.526089899999999</v>
@@ -6002,7 +6008,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B378">
         <v>23.555880399999999</v>
@@ -6013,7 +6019,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B379">
         <v>23.531806</v>
@@ -6024,7 +6030,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B380">
         <v>24.139272299999998</v>
@@ -6035,7 +6041,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B381">
         <v>23.592550800000001</v>
@@ -6046,7 +6052,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B382">
         <v>23.592611600000001</v>
@@ -6057,7 +6063,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B383">
         <v>23.5525065</v>
@@ -6068,7 +6074,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B384">
         <v>23.585401900000001</v>
@@ -6079,7 +6085,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B385">
         <v>23.585401900000001</v>
@@ -6090,7 +6096,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B386">
         <v>23.5562699</v>
@@ -6101,7 +6107,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B387">
         <v>23.510558</v>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B388">
         <v>23.522172900000001</v>
@@ -6123,7 +6129,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B389">
         <v>23.541571300000001</v>
@@ -6134,7 +6140,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B390">
         <v>23.526019399999999</v>
@@ -6145,7 +6151,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B391">
         <v>23.554021800000001</v>
@@ -6156,7 +6162,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B392">
         <v>23.532848399999999</v>
@@ -6167,7 +6173,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B393">
         <v>23.536950000000001</v>
@@ -6178,7 +6184,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B394">
         <v>23.550168299999999</v>
@@ -6189,7 +6195,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B395">
         <v>23.5325296</v>
@@ -6200,7 +6206,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B396">
         <v>23.582129999999999</v>
@@ -6211,7 +6217,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B397">
         <v>23.602374600000001</v>
@@ -6222,7 +6228,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B398">
         <v>23.591667999999999</v>
@@ -6233,7 +6239,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B399">
         <v>23.599057200000001</v>
@@ -6244,7 +6250,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B400">
         <v>23.601604300000002</v>
@@ -6255,7 +6261,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B401">
         <v>23.585401900000001</v>
@@ -6266,7 +6272,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B402">
         <v>23.604398</v>
@@ -6277,7 +6283,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B403">
         <v>23.604208400000001</v>
@@ -6288,7 +6294,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B404">
         <v>25.0687487</v>
@@ -6299,7 +6305,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B405">
         <v>23.576954000000001</v>
@@ -6310,7 +6316,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B406">
         <v>23.585401900000001</v>
@@ -6321,7 +6327,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B407">
         <v>23.601873600000001</v>
@@ -6332,7 +6338,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B408">
         <v>23.5392701</v>
@@ -6343,7 +6349,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B409">
         <v>23.4456606</v>
@@ -6354,7 +6360,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B410">
         <v>23.356770999999998</v>
@@ -6365,7 +6371,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B411">
         <v>23.344959100000001</v>
@@ -6376,7 +6382,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B412">
         <v>23.334249700000001</v>
@@ -6387,7 +6393,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B413">
         <v>23.342358099999998</v>
@@ -6398,7 +6404,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B414">
         <v>23.362995300000001</v>
@@ -6409,7 +6415,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B415">
         <v>23.305051599999999</v>
@@ -6420,7 +6426,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B416">
         <v>23.340319999999998</v>
@@ -6431,7 +6437,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B417">
         <v>23.319627000000001</v>
@@ -6442,7 +6448,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B418">
         <v>23.391902999999999</v>
@@ -6453,7 +6459,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B419">
         <v>23.339224900000001</v>
@@ -6464,7 +6470,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B420">
         <v>23.3467354</v>
@@ -6475,7 +6481,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B421">
         <v>23.337336100000002</v>
@@ -6486,7 +6492,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B422">
         <v>23.370972999999999</v>
@@ -6497,7 +6503,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B423">
         <v>23.378980899999998</v>
@@ -6508,7 +6514,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B424">
         <v>23.431595699999999</v>
@@ -6519,7 +6525,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B425">
         <v>23.421717699999999</v>
@@ -6530,7 +6536,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="B426">
         <v>23.4624457</v>
@@ -6541,7 +6547,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B427">
         <v>24.084413000000001</v>
@@ -6552,7 +6558,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B428">
         <v>23.462442899999999</v>
@@ -6563,7 +6569,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="B429">
         <v>23.491112999999999</v>
@@ -6574,7 +6580,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B430">
         <v>23.4857896</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B431">
         <v>23.5184286</v>
@@ -6596,7 +6602,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B432">
         <v>25.004387699999999</v>
@@ -6607,7 +6613,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B433">
         <v>23.382771999999999</v>
@@ -6618,7 +6624,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B434">
         <v>23.393027400000001</v>
@@ -6629,7 +6635,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B435">
         <v>23.404851499999999</v>
@@ -6640,7 +6646,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B436">
         <v>23.430401799999999</v>
@@ -6651,7 +6657,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B437">
         <v>23.412389300000001</v>
@@ -6662,7 +6668,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B438">
         <v>23.518373400000002</v>
@@ -6673,7 +6679,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="B439">
         <v>23.454085899999999</v>
@@ -6684,7 +6690,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B440">
         <v>23.438585700000001</v>
@@ -6695,7 +6701,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B441">
         <v>40.021298799999997</v>
@@ -6706,7 +6712,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B442">
         <v>23.4318223</v>
@@ -6717,7 +6723,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B443">
         <v>23.458407999999999</v>
@@ -6728,7 +6734,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B444">
         <v>23.460464399999999</v>
@@ -6739,7 +6745,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B445">
         <v>23.4974281</v>
@@ -6750,7 +6756,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B446">
         <v>24.084432799999998</v>
@@ -6761,7 +6767,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B447">
         <v>23.453774899999999</v>
@@ -6772,7 +6778,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B448">
         <v>23.408958999999999</v>
@@ -6783,7 +6789,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B449">
         <v>23.5051199</v>
@@ -6794,7 +6800,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B450">
         <v>23.442430900000002</v>
@@ -6805,7 +6811,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B451">
         <v>24.128403299999999</v>
@@ -6816,7 +6822,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B452">
         <v>35.449727899999999</v>
@@ -6827,7 +6833,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B453">
         <v>23.495638</v>
@@ -6838,7 +6844,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B454">
         <v>23.499543200000002</v>
@@ -6849,7 +6855,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B455">
         <v>23.332697199999998</v>
@@ -6860,7 +6866,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B456">
         <v>24.071843000000001</v>
@@ -6871,7 +6877,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="B457">
         <v>23.4983322</v>
@@ -6882,7 +6888,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="B458">
         <v>23.498487000000001</v>
@@ -6893,7 +6899,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B459">
         <v>23.550634899999999</v>
@@ -6904,7 +6910,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B460">
         <v>23.4643309</v>
@@ -6915,7 +6921,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B461">
         <v>23.463021099999999</v>
@@ -6926,7 +6932,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B462">
         <v>23.459486999999999</v>
@@ -6937,7 +6943,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B463">
         <v>23.475352000000001</v>
@@ -6948,7 +6954,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B464">
         <v>23.452170299999999</v>
@@ -6959,7 +6965,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B465">
         <v>23.5014319</v>
@@ -6970,7 +6976,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B466">
         <v>23.421058899999998</v>
@@ -6981,7 +6987,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B467">
         <v>23.449531199999999</v>
@@ -6992,7 +6998,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B468">
         <v>23.369724699999999</v>
@@ -7003,7 +7009,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B469">
         <v>23.3797295</v>
@@ -7014,7 +7020,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B470">
         <v>23.557311500000001</v>
@@ -7025,7 +7031,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B471">
         <v>23.522867099999999</v>
@@ -7036,7 +7042,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B472">
         <v>23.463342000000001</v>
@@ -7047,7 +7053,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B473">
         <v>23.461150499999999</v>
@@ -7058,7 +7064,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B474">
         <v>23.514022499999999</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B475">
         <v>23.459629700000001</v>
@@ -7080,7 +7086,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B476">
         <v>23.508901999999999</v>
@@ -7091,7 +7097,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B477">
         <v>23.299265299999998</v>
@@ -7102,7 +7108,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B478">
         <v>23.5715453</v>
@@ -7113,7 +7119,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B479">
         <v>23.546617699999999</v>
@@ -7124,7 +7130,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B480">
         <v>23.375855000000001</v>
@@ -7135,7 +7141,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B481">
         <v>23.4601367</v>
@@ -7146,7 +7152,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B482">
         <v>25.0482139</v>
@@ -7157,7 +7163,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B483">
         <v>23.446266699999999</v>
@@ -7168,7 +7174,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B484">
         <v>23.563801999999999</v>
@@ -7179,7 +7185,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B485">
         <v>23.448776599999999</v>
@@ -7190,7 +7196,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B486">
         <v>23.518373400000002</v>
@@ -7201,7 +7207,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B487">
         <v>23.5316999</v>
@@ -7212,7 +7218,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B488">
         <v>23.509008999999999</v>
@@ -7223,7 +7229,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B489">
         <v>23.491510099999999</v>
@@ -7234,7 +7240,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B490">
         <v>23.492824599999999</v>
